--- a/CDB/YGR.xlsx
+++ b/CDB/YGR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="102">
   <si>
     <t>DATA</t>
   </si>
@@ -52,18 +52,12 @@
     <t>A000004</t>
   </si>
   <si>
-    <t>REG04</t>
-  </si>
-  <si>
     <t>CMD</t>
   </si>
   <si>
     <t>A000006</t>
   </si>
   <si>
-    <t>CDIRQ</t>
-  </si>
-  <si>
     <t>R/W*</t>
   </si>
   <si>
@@ -74,20 +68,10 @@
   </si>
   <si>
     <t>A000008</t>
-  </si>
-  <si>
-    <t>REG08</t>
   </si>
   <si>
     <t>- bit 0 ???
 - bit 1 ???</t>
-  </si>
-  <si>
-    <t>CDMASK</t>
-  </si>
-  <si>
-    <t>Register is for masking interrupt.
-Bit content is the same as the CDIRQ register: 1 - interrupt enable, 0 - interrupt masked.</t>
   </si>
   <si>
     <t>A00000A</t>
@@ -442,8 +426,31 @@
     </r>
   </si>
   <si>
+    <t>CDIRQU</t>
+  </si>
+  <si>
+    <t>Register is for masking lower interrupt.
+Bit content is the same as the CDIRQL register: 1 - interrupt enable, 0 - interrupt masked.</t>
+  </si>
+  <si>
+    <t>Register is for masking upper interrupt.
+Bit content is the same as the CDIRQU register: 1 - interrupt enable, 0 - interrupt masked.</t>
+  </si>
+  <si>
+    <t>CDIRQL</t>
+  </si>
+  <si>
+    <t>CDMSKL</t>
+  </si>
+  <si>
+    <t>CDMSKU</t>
+  </si>
+  <si>
+    <t>RESP</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">bit 1 </t>
+      <t xml:space="preserve">bit 0 </t>
     </r>
     <r>
       <rPr>
@@ -466,7 +473,31 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: set by hardware when host has written a command to the registers CRx.</t>
+      <t xml:space="preserve">: set by hardware when host has written a command to the registers CRx.
+bit 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Response read  (RESP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: set by hardware when host has read the response registers RRx (used for periodic response).</t>
     </r>
   </si>
 </sst>
@@ -549,10 +580,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,12 +889,13 @@
   <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
     <col min="3" max="18" width="8" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -926,52 +958,52 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1025,24 +1057,24 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
@@ -1202,7 +1234,7 @@
     </row>
     <row r="11" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1275,65 +1307,68 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1403,10 +1438,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>8</v>
@@ -1442,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>8</v>
@@ -1486,13 +1521,13 @@
         <v>8</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>8</v>
@@ -1509,7 +1544,7 @@
     </row>
     <row r="23" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1528,24 +1563,24 @@
       <c r="R23" s="6"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
@@ -1599,10 +1634,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>8</v>
@@ -1646,11 +1681,11 @@
       <c r="P28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>9</v>
+      <c r="Q28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -1705,7 +1740,7 @@
     </row>
     <row r="31" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1775,10 +1810,10 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>8</v>
@@ -1814,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>8</v>
@@ -1881,7 +1916,7 @@
     </row>
     <row r="37" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="6" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1951,10 +1986,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>8</v>
@@ -2062,7 +2097,7 @@
     <row r="43" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="C43" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -2132,10 +2167,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>9</v>
@@ -2264,66 +2299,66 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="O52" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="P52" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="Q52" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="R52" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -2376,39 +2411,39 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C57" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
+      <c r="C57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
@@ -2480,10 +2515,10 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>8</v>
@@ -2513,7 +2548,7 @@
         <v>8</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>9</v>
@@ -2564,7 +2599,7 @@
         <v>8</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>2</v>
@@ -2659,10 +2694,10 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>8</v>
@@ -2689,7 +2724,7 @@
         <v>8</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>9</v>
@@ -2765,7 +2800,7 @@
     </row>
     <row r="69" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -2835,10 +2870,10 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>8</v>
@@ -2916,28 +2951,28 @@
         <v>8</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -3014,58 +3049,58 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q78" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P78" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q78" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="R78" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -3076,51 +3111,51 @@
         <v>8</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -3139,33 +3174,27 @@
       <c r="R81" s="6"/>
     </row>
     <row r="83" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C83" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
+      <c r="C83" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C31:R31"/>
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="C11:R11"/>
-    <mergeCell ref="C17:R17"/>
-    <mergeCell ref="C23:R23"/>
-    <mergeCell ref="C25:R25"/>
     <mergeCell ref="C75:R75"/>
     <mergeCell ref="C81:R81"/>
     <mergeCell ref="C83:R83"/>
@@ -3175,8 +3204,14 @@
     <mergeCell ref="C49:R49"/>
     <mergeCell ref="C69:R69"/>
     <mergeCell ref="C63:R63"/>
+    <mergeCell ref="C31:R31"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="C11:R11"/>
+    <mergeCell ref="C17:R17"/>
+    <mergeCell ref="C23:R23"/>
+    <mergeCell ref="C25:R25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>